--- a/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
+++ b/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\MGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\mercure_galant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F35D2-65E1-48B7-8430-AB1B40C02136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98455AAC-D373-40C5-AC35-A2D79D89EEF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="108">
   <si>
     <t>identifiant (optionnel et modifiable)</t>
   </si>
@@ -300,6 +300,9 @@
     <t>Mausolées</t>
   </si>
   <si>
+    <t>Médailles</t>
+  </si>
+  <si>
     <t>Météores</t>
   </si>
   <si>
@@ -364,9 +367,6 @@
   </si>
   <si>
     <t>Relevés décoratifs</t>
-  </si>
-  <si>
-    <t>Médaille</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -456,6 +456,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -685,8 +691,8 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -981,16 +987,16 @@
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
@@ -1007,16 +1013,16 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
+      <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
@@ -1040,7 +1046,9 @@
       <c r="C25" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>29</v>
       </c>
@@ -1054,7 +1062,9 @@
       <c r="C26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E26" s="8" t="s">
         <v>30</v>
       </c>
@@ -1068,7 +1078,9 @@
       <c r="C27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E27" s="8" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1094,9 @@
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E28" s="8" t="s">
         <v>32</v>
       </c>
@@ -1096,7 +1110,9 @@
       <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E29" s="8" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1126,9 @@
       <c r="C30" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E30" s="8" t="s">
         <v>34</v>
       </c>
@@ -1124,7 +1142,9 @@
       <c r="C31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E31" s="8" t="s">
         <v>35</v>
       </c>
@@ -1138,7 +1158,9 @@
       <c r="C32" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E32" s="8" t="s">
         <v>36</v>
       </c>
@@ -1152,7 +1174,9 @@
       <c r="C33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1166,7 +1190,9 @@
       <c r="C34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E34" s="8" t="s">
         <v>38</v>
       </c>
@@ -1180,7 +1206,9 @@
       <c r="C35" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E35" s="8" t="s">
         <v>39</v>
       </c>
@@ -1194,7 +1222,9 @@
       <c r="C36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E36" s="8" t="s">
         <v>40</v>
       </c>
@@ -1208,7 +1238,9 @@
       <c r="C37" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1334,7 @@
       <c r="C44" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E44" s="7"/>
@@ -1375,430 +1407,430 @@
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="B50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="B51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="B52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="B53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="B54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="B55" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="B56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="B57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="B58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="10" t="s">
+      <c r="B59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="B60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="B61" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="B62" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="10" t="s">
+      <c r="B63" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="10" t="s">
+      <c r="B64" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D65" s="10" t="s">
+      <c r="B65" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D66" s="10" t="s">
+      <c r="B66" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="67" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D67" s="10" t="s">
+      <c r="B67" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D67" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="68" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D68" s="10" t="s">
+      <c r="B68" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D69" s="10" t="s">
+      <c r="B69" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="70" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="10" t="s">
+      <c r="B70" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="71" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D71" s="10" t="s">
+      <c r="B71" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D72" s="10" t="s">
+      <c r="B72" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D72" s="12" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D73" s="10" t="s">
+      <c r="B73" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="10" t="s">
+      <c r="B74" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D75" s="10" t="s">
+      <c r="B75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D75" s="12" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="B76" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D77" s="10" t="s">
+      <c r="B77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D77" s="12" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D78" s="10" t="s">
+      <c r="B78" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D78" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="10" t="s">
+      <c r="B79" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D79" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D80" s="10" t="s">
+      <c r="B80" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B81" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B82" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B83" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B85" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B86" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B88" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B89" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B90" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B91" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B92" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B93" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B94" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B96" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B97" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B98" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B99" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B100" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B101" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="12" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B89" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B90" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B91" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B92" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B98" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B99" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
+++ b/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebecca\Documents\GitHub\SHERLOCK\sources\corpora_icono\mercure_galant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98455AAC-D373-40C5-AC35-A2D79D89EEF3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DD4425-A991-4501-A904-595F535E9DAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,9 +273,6 @@
     <t>Étendards</t>
   </si>
   <si>
-    <t>Feux d’artifice</t>
-  </si>
-  <si>
     <t>Fontaines</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Mausolées</t>
   </si>
   <si>
-    <t>Médailles</t>
-  </si>
-  <si>
     <t>Météores</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>Villes</t>
   </si>
   <si>
-    <t>Voûtes</t>
-  </si>
-  <si>
     <t>Techniques</t>
   </si>
   <si>
@@ -367,6 +358,15 @@
   </si>
   <si>
     <t>Relevés décoratifs</t>
+  </si>
+  <si>
+    <t>Médaille</t>
+  </si>
+  <si>
+    <t>feu d'artifice</t>
+  </si>
+  <si>
+    <t>voûte</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1579,7 @@
         <v>54</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>54</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1595,7 +1595,7 @@
         <v>54</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1603,7 +1603,7 @@
         <v>54</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1611,7 +1611,7 @@
         <v>54</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1619,7 +1619,7 @@
         <v>54</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1627,7 +1627,7 @@
         <v>54</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>54</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>54</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1651,7 +1651,7 @@
         <v>54</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1659,7 +1659,7 @@
         <v>54</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>54</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>54</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1691,10 +1691,10 @@
         <v>54</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1702,7 +1702,7 @@
         <v>54</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>54</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1718,7 +1718,7 @@
         <v>54</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1726,7 +1726,7 @@
         <v>54</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>54</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1742,7 +1742,7 @@
         <v>54</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>54</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>54</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1766,7 +1766,7 @@
         <v>54</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>54</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -1782,7 +1782,7 @@
         <v>54</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1790,36 +1790,36 @@
         <v>54</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="101" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>46</v>
@@ -1827,10 +1827,10 @@
     </row>
     <row r="102" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
+++ b/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="262">
   <si>
     <t>identifiant (optionnel et modifiable)</t>
   </si>
@@ -799,13 +799,16 @@
     <t>zodiaque</t>
   </si>
   <si>
+    <t>système d'orientation spatiale</t>
+  </si>
+  <si>
     <t>textes</t>
   </si>
   <si>
     <t>texte en arabe</t>
   </si>
   <si>
-    <t>système d'orientation spatiale</t>
+    <t>table d'écriture codée ;</t>
   </si>
   <si>
     <t>Techniques</t>
@@ -824,9 +827,6 @@
   </si>
   <si>
     <t>Relevé décoratif</t>
-  </si>
-  <si>
-    <t>table d'écriture codée ;</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1011,6 +1011,9 @@
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1032,11 +1035,11 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
@@ -1292,7 +1295,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.14"/>
     <col customWidth="1" min="2" max="2" width="20.57"/>
-    <col customWidth="1" min="3" max="3" width="26.57"/>
+    <col customWidth="1" min="3" max="3" width="30.0"/>
     <col customWidth="1" min="4" max="4" width="36.43"/>
     <col customWidth="1" min="5" max="5" width="31.86"/>
     <col customWidth="1" min="6" max="7" width="37.14"/>
@@ -2779,37 +2782,43 @@
       <c r="D92" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E92" s="16" t="s">
-        <v>90</v>
-      </c>
+      <c r="E92" s="16"/>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
     </row>
     <row r="93">
-      <c r="A93" s="13"/>
+      <c r="A93" s="20"/>
       <c r="B93" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="15" t="s">
         <v>89</v>
       </c>
       <c r="E93" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="20"/>
+      <c r="B94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E94" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="13"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
     </row>
     <row r="95">
       <c r="A95" s="13"/>
@@ -2819,18 +2828,17 @@
       <c r="C95" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="F95" s="13"/>
       <c r="G95" s="13"/>
     </row>
     <row r="96">
       <c r="A96" s="13"/>
       <c r="B96" s="3"/>
-      <c r="C96" s="14"/>
+      <c r="C96" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="D96" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -2838,18 +2846,26 @@
     <row r="97">
       <c r="A97" s="13"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="13"/>
+      <c r="C97" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
     </row>
     <row r="98">
-      <c r="A98" s="13"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" s="15"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
     </row>
     <row r="99">
       <c r="A99" s="13"/>
@@ -2957,7 +2973,7 @@
       <c r="D105" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E105" s="20" t="s">
+      <c r="E105" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F105" s="13"/>
@@ -3007,7 +3023,7 @@
         <v>103</v>
       </c>
       <c r="D109" s="13"/>
-      <c r="E109" s="20"/>
+      <c r="E109" s="21"/>
       <c r="F109" s="13"/>
       <c r="G109" s="13"/>
     </row>
@@ -3075,18 +3091,18 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D115" s="21" t="s">
+      <c r="B115" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D115" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="116">
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D116" s="16" t="s">
@@ -3094,15 +3110,15 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" s="23" t="s">
+      <c r="B117" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D118" s="16" t="s">
@@ -3110,7 +3126,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D119" s="16" t="s">
@@ -3118,7 +3134,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" s="21" t="s">
+      <c r="B120" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D120" s="16" t="s">
@@ -3126,55 +3142,55 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D121" s="23" t="s">
+      <c r="B121" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" s="24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="122">
-      <c r="B122" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D122" s="23" t="s">
+      <c r="B122" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D122" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D123" s="23" t="s">
+      <c r="B123" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D123" s="24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D124" s="23" t="s">
+      <c r="B124" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D124" s="24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="125">
-      <c r="B125" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D125" s="23" t="s">
+      <c r="B125" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D125" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="126">
-      <c r="B126" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D126" s="23" t="s">
+      <c r="B126" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="127">
-      <c r="B127" s="21" t="s">
+      <c r="B127" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D127" s="16" t="s">
@@ -3182,449 +3198,449 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="24"/>
-      <c r="B128" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C128" s="24"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="25"/>
       <c r="D128" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
-      <c r="M128" s="24"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="24"/>
-      <c r="Q128" s="24"/>
-      <c r="R128" s="24"/>
-      <c r="S128" s="24"/>
-      <c r="T128" s="24"/>
-      <c r="U128" s="24"/>
-      <c r="V128" s="24"/>
-      <c r="W128" s="24"/>
-      <c r="X128" s="24"/>
-      <c r="Y128" s="24"/>
-      <c r="Z128" s="24"/>
-      <c r="AA128" s="24"/>
-      <c r="AB128" s="24"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="25"/>
+      <c r="Q128" s="25"/>
+      <c r="R128" s="25"/>
+      <c r="S128" s="25"/>
+      <c r="T128" s="25"/>
+      <c r="U128" s="25"/>
+      <c r="V128" s="25"/>
+      <c r="W128" s="25"/>
+      <c r="X128" s="25"/>
+      <c r="Y128" s="25"/>
+      <c r="Z128" s="25"/>
+      <c r="AA128" s="25"/>
+      <c r="AB128" s="25"/>
     </row>
     <row r="129">
-      <c r="A129" s="24"/>
-      <c r="B129" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C129" s="24"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C129" s="25"/>
       <c r="D129" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
-      <c r="M129" s="24"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="24"/>
-      <c r="Q129" s="24"/>
-      <c r="R129" s="24"/>
-      <c r="S129" s="24"/>
-      <c r="T129" s="24"/>
-      <c r="U129" s="24"/>
-      <c r="V129" s="24"/>
-      <c r="W129" s="24"/>
-      <c r="X129" s="24"/>
-      <c r="Y129" s="24"/>
-      <c r="Z129" s="24"/>
-      <c r="AA129" s="24"/>
-      <c r="AB129" s="24"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
+      <c r="M129" s="25"/>
+      <c r="N129" s="25"/>
+      <c r="O129" s="25"/>
+      <c r="P129" s="25"/>
+      <c r="Q129" s="25"/>
+      <c r="R129" s="25"/>
+      <c r="S129" s="25"/>
+      <c r="T129" s="25"/>
+      <c r="U129" s="25"/>
+      <c r="V129" s="25"/>
+      <c r="W129" s="25"/>
+      <c r="X129" s="25"/>
+      <c r="Y129" s="25"/>
+      <c r="Z129" s="25"/>
+      <c r="AA129" s="25"/>
+      <c r="AB129" s="25"/>
     </row>
     <row r="130">
-      <c r="A130" s="24"/>
-      <c r="B130" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C130" s="24"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C130" s="25"/>
       <c r="D130" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24"/>
-      <c r="H130" s="24"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="24"/>
-      <c r="L130" s="24"/>
-      <c r="M130" s="24"/>
-      <c r="N130" s="24"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="24"/>
-      <c r="Q130" s="24"/>
-      <c r="R130" s="24"/>
-      <c r="S130" s="24"/>
-      <c r="T130" s="24"/>
-      <c r="U130" s="24"/>
-      <c r="V130" s="24"/>
-      <c r="W130" s="24"/>
-      <c r="X130" s="24"/>
-      <c r="Y130" s="24"/>
-      <c r="Z130" s="24"/>
-      <c r="AA130" s="24"/>
-      <c r="AB130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="25"/>
+      <c r="N130" s="25"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="25"/>
+      <c r="S130" s="25"/>
+      <c r="T130" s="25"/>
+      <c r="U130" s="25"/>
+      <c r="V130" s="25"/>
+      <c r="W130" s="25"/>
+      <c r="X130" s="25"/>
+      <c r="Y130" s="25"/>
+      <c r="Z130" s="25"/>
+      <c r="AA130" s="25"/>
+      <c r="AB130" s="25"/>
     </row>
     <row r="131">
-      <c r="A131" s="24"/>
-      <c r="B131" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C131" s="24"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="25"/>
       <c r="D131" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="24"/>
-      <c r="I131" s="24"/>
-      <c r="J131" s="24"/>
-      <c r="K131" s="24"/>
-      <c r="L131" s="24"/>
-      <c r="M131" s="24"/>
-      <c r="N131" s="24"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="24"/>
-      <c r="Q131" s="24"/>
-      <c r="R131" s="24"/>
-      <c r="S131" s="24"/>
-      <c r="T131" s="24"/>
-      <c r="U131" s="24"/>
-      <c r="V131" s="24"/>
-      <c r="W131" s="24"/>
-      <c r="X131" s="24"/>
-      <c r="Y131" s="24"/>
-      <c r="Z131" s="24"/>
-      <c r="AA131" s="24"/>
-      <c r="AB131" s="24"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="25"/>
+      <c r="M131" s="25"/>
+      <c r="N131" s="25"/>
+      <c r="O131" s="25"/>
+      <c r="P131" s="25"/>
+      <c r="Q131" s="25"/>
+      <c r="R131" s="25"/>
+      <c r="S131" s="25"/>
+      <c r="T131" s="25"/>
+      <c r="U131" s="25"/>
+      <c r="V131" s="25"/>
+      <c r="W131" s="25"/>
+      <c r="X131" s="25"/>
+      <c r="Y131" s="25"/>
+      <c r="Z131" s="25"/>
+      <c r="AA131" s="25"/>
+      <c r="AB131" s="25"/>
     </row>
     <row r="132">
-      <c r="A132" s="24"/>
-      <c r="B132" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C132" s="24"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C132" s="25"/>
       <c r="D132" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="24"/>
-      <c r="I132" s="24"/>
-      <c r="J132" s="24"/>
-      <c r="K132" s="24"/>
-      <c r="L132" s="24"/>
-      <c r="M132" s="24"/>
-      <c r="N132" s="24"/>
-      <c r="O132" s="24"/>
-      <c r="P132" s="24"/>
-      <c r="Q132" s="24"/>
-      <c r="R132" s="24"/>
-      <c r="S132" s="24"/>
-      <c r="T132" s="24"/>
-      <c r="U132" s="24"/>
-      <c r="V132" s="24"/>
-      <c r="W132" s="24"/>
-      <c r="X132" s="24"/>
-      <c r="Y132" s="24"/>
-      <c r="Z132" s="24"/>
-      <c r="AA132" s="24"/>
-      <c r="AB132" s="24"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="25"/>
+      <c r="N132" s="25"/>
+      <c r="O132" s="25"/>
+      <c r="P132" s="25"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="25"/>
+      <c r="S132" s="25"/>
+      <c r="T132" s="25"/>
+      <c r="U132" s="25"/>
+      <c r="V132" s="25"/>
+      <c r="W132" s="25"/>
+      <c r="X132" s="25"/>
+      <c r="Y132" s="25"/>
+      <c r="Z132" s="25"/>
+      <c r="AA132" s="25"/>
+      <c r="AB132" s="25"/>
     </row>
     <row r="133">
-      <c r="A133" s="24"/>
-      <c r="B133" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C133" s="24"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C133" s="25"/>
       <c r="D133" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="24"/>
-      <c r="I133" s="24"/>
-      <c r="J133" s="24"/>
-      <c r="K133" s="24"/>
-      <c r="L133" s="24"/>
-      <c r="M133" s="24"/>
-      <c r="N133" s="24"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="24"/>
-      <c r="Q133" s="24"/>
-      <c r="R133" s="24"/>
-      <c r="S133" s="24"/>
-      <c r="T133" s="24"/>
-      <c r="U133" s="24"/>
-      <c r="V133" s="24"/>
-      <c r="W133" s="24"/>
-      <c r="X133" s="24"/>
-      <c r="Y133" s="24"/>
-      <c r="Z133" s="24"/>
-      <c r="AA133" s="24"/>
-      <c r="AB133" s="24"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25"/>
+      <c r="M133" s="25"/>
+      <c r="N133" s="25"/>
+      <c r="O133" s="25"/>
+      <c r="P133" s="25"/>
+      <c r="Q133" s="25"/>
+      <c r="R133" s="25"/>
+      <c r="S133" s="25"/>
+      <c r="T133" s="25"/>
+      <c r="U133" s="25"/>
+      <c r="V133" s="25"/>
+      <c r="W133" s="25"/>
+      <c r="X133" s="25"/>
+      <c r="Y133" s="25"/>
+      <c r="Z133" s="25"/>
+      <c r="AA133" s="25"/>
+      <c r="AB133" s="25"/>
     </row>
     <row r="134">
-      <c r="A134" s="24"/>
-      <c r="B134" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C134" s="24"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C134" s="25"/>
       <c r="D134" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="24"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="24"/>
-      <c r="P134" s="24"/>
-      <c r="Q134" s="24"/>
-      <c r="R134" s="24"/>
-      <c r="S134" s="24"/>
-      <c r="T134" s="24"/>
-      <c r="U134" s="24"/>
-      <c r="V134" s="24"/>
-      <c r="W134" s="24"/>
-      <c r="X134" s="24"/>
-      <c r="Y134" s="24"/>
-      <c r="Z134" s="24"/>
-      <c r="AA134" s="24"/>
-      <c r="AB134" s="24"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
+      <c r="N134" s="25"/>
+      <c r="O134" s="25"/>
+      <c r="P134" s="25"/>
+      <c r="Q134" s="25"/>
+      <c r="R134" s="25"/>
+      <c r="S134" s="25"/>
+      <c r="T134" s="25"/>
+      <c r="U134" s="25"/>
+      <c r="V134" s="25"/>
+      <c r="W134" s="25"/>
+      <c r="X134" s="25"/>
+      <c r="Y134" s="25"/>
+      <c r="Z134" s="25"/>
+      <c r="AA134" s="25"/>
+      <c r="AB134" s="25"/>
     </row>
     <row r="135">
-      <c r="A135" s="24"/>
-      <c r="B135" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" s="24"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C135" s="25"/>
       <c r="D135" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
-      <c r="I135" s="24"/>
-      <c r="J135" s="24"/>
-      <c r="K135" s="24"/>
-      <c r="L135" s="24"/>
-      <c r="M135" s="24"/>
-      <c r="N135" s="24"/>
-      <c r="O135" s="24"/>
-      <c r="P135" s="24"/>
-      <c r="Q135" s="24"/>
-      <c r="R135" s="24"/>
-      <c r="S135" s="24"/>
-      <c r="T135" s="24"/>
-      <c r="U135" s="24"/>
-      <c r="V135" s="24"/>
-      <c r="W135" s="24"/>
-      <c r="X135" s="24"/>
-      <c r="Y135" s="24"/>
-      <c r="Z135" s="24"/>
-      <c r="AA135" s="24"/>
-      <c r="AB135" s="24"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
+      <c r="M135" s="25"/>
+      <c r="N135" s="25"/>
+      <c r="O135" s="25"/>
+      <c r="P135" s="25"/>
+      <c r="Q135" s="25"/>
+      <c r="R135" s="25"/>
+      <c r="S135" s="25"/>
+      <c r="T135" s="25"/>
+      <c r="U135" s="25"/>
+      <c r="V135" s="25"/>
+      <c r="W135" s="25"/>
+      <c r="X135" s="25"/>
+      <c r="Y135" s="25"/>
+      <c r="Z135" s="25"/>
+      <c r="AA135" s="25"/>
+      <c r="AB135" s="25"/>
     </row>
     <row r="136">
-      <c r="A136" s="24"/>
-      <c r="B136" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C136" s="24"/>
-      <c r="D136" s="23" t="s">
+      <c r="A136" s="25"/>
+      <c r="B136" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C136" s="25"/>
+      <c r="D136" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="24"/>
-      <c r="I136" s="24"/>
-      <c r="J136" s="24"/>
-      <c r="K136" s="24"/>
-      <c r="L136" s="24"/>
-      <c r="M136" s="24"/>
-      <c r="N136" s="24"/>
-      <c r="O136" s="24"/>
-      <c r="P136" s="24"/>
-      <c r="Q136" s="24"/>
-      <c r="R136" s="24"/>
-      <c r="S136" s="24"/>
-      <c r="T136" s="24"/>
-      <c r="U136" s="24"/>
-      <c r="V136" s="24"/>
-      <c r="W136" s="24"/>
-      <c r="X136" s="24"/>
-      <c r="Y136" s="24"/>
-      <c r="Z136" s="24"/>
-      <c r="AA136" s="24"/>
-      <c r="AB136" s="24"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
+      <c r="M136" s="25"/>
+      <c r="N136" s="25"/>
+      <c r="O136" s="25"/>
+      <c r="P136" s="25"/>
+      <c r="Q136" s="25"/>
+      <c r="R136" s="25"/>
+      <c r="S136" s="25"/>
+      <c r="T136" s="25"/>
+      <c r="U136" s="25"/>
+      <c r="V136" s="25"/>
+      <c r="W136" s="25"/>
+      <c r="X136" s="25"/>
+      <c r="Y136" s="25"/>
+      <c r="Z136" s="25"/>
+      <c r="AA136" s="25"/>
+      <c r="AB136" s="25"/>
     </row>
     <row r="137">
-      <c r="A137" s="24"/>
-      <c r="B137" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C137" s="24"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C137" s="25"/>
       <c r="D137" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="24"/>
-      <c r="I137" s="24"/>
-      <c r="J137" s="24"/>
-      <c r="K137" s="24"/>
-      <c r="L137" s="24"/>
-      <c r="M137" s="24"/>
-      <c r="N137" s="24"/>
-      <c r="O137" s="24"/>
-      <c r="P137" s="24"/>
-      <c r="Q137" s="24"/>
-      <c r="R137" s="24"/>
-      <c r="S137" s="24"/>
-      <c r="T137" s="24"/>
-      <c r="U137" s="24"/>
-      <c r="V137" s="24"/>
-      <c r="W137" s="24"/>
-      <c r="X137" s="24"/>
-      <c r="Y137" s="24"/>
-      <c r="Z137" s="24"/>
-      <c r="AA137" s="24"/>
-      <c r="AB137" s="24"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
+      <c r="N137" s="25"/>
+      <c r="O137" s="25"/>
+      <c r="P137" s="25"/>
+      <c r="Q137" s="25"/>
+      <c r="R137" s="25"/>
+      <c r="S137" s="25"/>
+      <c r="T137" s="25"/>
+      <c r="U137" s="25"/>
+      <c r="V137" s="25"/>
+      <c r="W137" s="25"/>
+      <c r="X137" s="25"/>
+      <c r="Y137" s="25"/>
+      <c r="Z137" s="25"/>
+      <c r="AA137" s="25"/>
+      <c r="AB137" s="25"/>
     </row>
     <row r="138">
-      <c r="A138" s="24"/>
-      <c r="B138" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C138" s="24"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C138" s="25"/>
       <c r="D138" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
-      <c r="H138" s="24"/>
-      <c r="I138" s="24"/>
-      <c r="J138" s="24"/>
-      <c r="K138" s="24"/>
-      <c r="L138" s="24"/>
-      <c r="M138" s="24"/>
-      <c r="N138" s="24"/>
-      <c r="O138" s="24"/>
-      <c r="P138" s="24"/>
-      <c r="Q138" s="24"/>
-      <c r="R138" s="24"/>
-      <c r="S138" s="24"/>
-      <c r="T138" s="24"/>
-      <c r="U138" s="24"/>
-      <c r="V138" s="24"/>
-      <c r="W138" s="24"/>
-      <c r="X138" s="24"/>
-      <c r="Y138" s="24"/>
-      <c r="Z138" s="24"/>
-      <c r="AA138" s="24"/>
-      <c r="AB138" s="24"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
+      <c r="M138" s="25"/>
+      <c r="N138" s="25"/>
+      <c r="O138" s="25"/>
+      <c r="P138" s="25"/>
+      <c r="Q138" s="25"/>
+      <c r="R138" s="25"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="25"/>
+      <c r="U138" s="25"/>
+      <c r="V138" s="25"/>
+      <c r="W138" s="25"/>
+      <c r="X138" s="25"/>
+      <c r="Y138" s="25"/>
+      <c r="Z138" s="25"/>
+      <c r="AA138" s="25"/>
+      <c r="AB138" s="25"/>
     </row>
     <row r="139">
-      <c r="A139" s="24"/>
-      <c r="B139" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C139" s="24"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C139" s="25"/>
       <c r="D139" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="24"/>
-      <c r="I139" s="24"/>
-      <c r="J139" s="24"/>
-      <c r="K139" s="24"/>
-      <c r="L139" s="24"/>
-      <c r="M139" s="24"/>
-      <c r="N139" s="24"/>
-      <c r="O139" s="24"/>
-      <c r="P139" s="24"/>
-      <c r="Q139" s="24"/>
-      <c r="R139" s="24"/>
-      <c r="S139" s="24"/>
-      <c r="T139" s="24"/>
-      <c r="U139" s="24"/>
-      <c r="V139" s="24"/>
-      <c r="W139" s="24"/>
-      <c r="X139" s="24"/>
-      <c r="Y139" s="24"/>
-      <c r="Z139" s="24"/>
-      <c r="AA139" s="24"/>
-      <c r="AB139" s="24"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
+      <c r="N139" s="25"/>
+      <c r="O139" s="25"/>
+      <c r="P139" s="25"/>
+      <c r="Q139" s="25"/>
+      <c r="R139" s="25"/>
+      <c r="S139" s="25"/>
+      <c r="T139" s="25"/>
+      <c r="U139" s="25"/>
+      <c r="V139" s="25"/>
+      <c r="W139" s="25"/>
+      <c r="X139" s="25"/>
+      <c r="Y139" s="25"/>
+      <c r="Z139" s="25"/>
+      <c r="AA139" s="25"/>
+      <c r="AB139" s="25"/>
     </row>
     <row r="140">
-      <c r="A140" s="24"/>
-      <c r="B140" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C140" s="24"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C140" s="25"/>
       <c r="D140" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="24"/>
-      <c r="I140" s="24"/>
-      <c r="J140" s="24"/>
-      <c r="K140" s="24"/>
-      <c r="L140" s="24"/>
-      <c r="M140" s="24"/>
-      <c r="N140" s="24"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="24"/>
-      <c r="Q140" s="24"/>
-      <c r="R140" s="24"/>
-      <c r="S140" s="24"/>
-      <c r="T140" s="24"/>
-      <c r="U140" s="24"/>
-      <c r="V140" s="24"/>
-      <c r="W140" s="24"/>
-      <c r="X140" s="24"/>
-      <c r="Y140" s="24"/>
-      <c r="Z140" s="24"/>
-      <c r="AA140" s="24"/>
-      <c r="AB140" s="24"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
+      <c r="M140" s="25"/>
+      <c r="N140" s="25"/>
+      <c r="O140" s="25"/>
+      <c r="P140" s="25"/>
+      <c r="Q140" s="25"/>
+      <c r="R140" s="25"/>
+      <c r="S140" s="25"/>
+      <c r="T140" s="25"/>
+      <c r="U140" s="25"/>
+      <c r="V140" s="25"/>
+      <c r="W140" s="25"/>
+      <c r="X140" s="25"/>
+      <c r="Y140" s="25"/>
+      <c r="Z140" s="25"/>
+      <c r="AA140" s="25"/>
+      <c r="AB140" s="25"/>
     </row>
     <row r="141">
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D141" s="16" t="s">
@@ -3632,7 +3648,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D142" s="16" t="s">
@@ -3640,7 +3656,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="21" t="s">
+      <c r="B143" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D143" s="16" t="s">
@@ -3648,7 +3664,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D144" s="16" t="s">
@@ -3656,7 +3672,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" s="21" t="s">
+      <c r="B145" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -3664,7 +3680,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D146" s="16" t="s">
@@ -3672,7 +3688,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" s="21" t="s">
+      <c r="B147" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D147" s="16" t="s">
@@ -3680,7 +3696,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D148" s="16" t="s">
@@ -3688,7 +3704,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" s="21" t="s">
+      <c r="B149" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D149" s="16" t="s">
@@ -3696,7 +3712,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" s="21" t="s">
+      <c r="B150" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D150" s="16" t="s">
@@ -3704,7 +3720,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D151" s="16" t="s">
@@ -3712,7 +3728,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="21" t="s">
+      <c r="B152" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D152" s="16" t="s">
@@ -3720,7 +3736,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D153" s="16" t="s">
@@ -3728,7 +3744,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="21" t="s">
+      <c r="B154" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D154" s="16" t="s">
@@ -3736,15 +3752,15 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D155" s="23" t="s">
+      <c r="B155" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D155" s="24" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="156">
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D156" s="16" t="s">
@@ -3752,7 +3768,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D157" s="16" t="s">
@@ -3760,7 +3776,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" s="21" t="s">
+      <c r="B158" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D158" s="16" t="s">
@@ -3768,7 +3784,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D159" s="16" t="s">
@@ -3776,7 +3792,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D160" s="16" t="s">
@@ -3784,7 +3800,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D161" s="16" t="s">
@@ -3792,7 +3808,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D162" s="16" t="s">
@@ -3800,15 +3816,15 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D163" s="23" t="s">
+      <c r="B163" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D163" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="164">
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D164" s="16" t="s">
@@ -3816,7 +3832,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="B165" s="21" t="s">
+      <c r="B165" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D165" s="16" t="s">
@@ -3824,7 +3840,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D166" s="16" t="s">
@@ -3832,7 +3848,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" s="21" t="s">
+      <c r="B167" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D167" s="16" t="s">
@@ -3840,15 +3856,15 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D168" s="23" t="s">
+      <c r="B168" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D168" s="24" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="169">
-      <c r="B169" s="21" t="s">
+      <c r="B169" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D169" s="16" t="s">
@@ -3856,7 +3872,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" s="21" t="s">
+      <c r="B170" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D170" s="16" t="s">
@@ -3864,7 +3880,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="21" t="s">
+      <c r="B171" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D171" s="16" t="s">
@@ -3872,7 +3888,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D172" s="16" t="s">
@@ -3880,7 +3896,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" s="21" t="s">
+      <c r="B173" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D173" s="16" t="s">
@@ -3888,7 +3904,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" s="21" t="s">
+      <c r="B174" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D174" s="16" t="s">
@@ -3896,7 +3912,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D175" s="16" t="s">
@@ -3904,15 +3920,15 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D176" s="23" t="s">
+      <c r="B176" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D176" s="24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="177">
-      <c r="B177" s="21" t="s">
+      <c r="B177" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D177" s="16" t="s">
@@ -3920,7 +3936,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="21" t="s">
+      <c r="B178" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D178" s="16" t="s">
@@ -3928,7 +3944,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" s="21" t="s">
+      <c r="B179" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D179" s="18" t="s">
@@ -3936,7 +3952,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" s="21" t="s">
+      <c r="B180" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D180" s="16" t="s">
@@ -3944,7 +3960,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" s="21" t="s">
+      <c r="B181" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D181" s="16" t="s">
@@ -3952,7 +3968,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="21" t="s">
+      <c r="B182" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D182" s="16" t="s">
@@ -3960,7 +3976,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" s="21" t="s">
+      <c r="B183" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D183" s="16" t="s">
@@ -3968,7 +3984,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" s="21" t="s">
+      <c r="B184" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D184" s="16" t="s">
@@ -3976,7 +3992,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" s="21" t="s">
+      <c r="B185" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D185" s="16" t="s">
@@ -3984,7 +4000,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" s="21" t="s">
+      <c r="B186" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D186" s="16" t="s">
@@ -3992,7 +4008,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" s="21" t="s">
+      <c r="B187" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D187" s="16" t="s">
@@ -4000,7 +4016,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" s="21" t="s">
+      <c r="B188" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D188" s="16" t="s">
@@ -4008,15 +4024,15 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D189" s="23" t="s">
+      <c r="B189" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D189" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="190">
-      <c r="B190" s="21" t="s">
+      <c r="B190" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D190" s="16" t="s">
@@ -4024,7 +4040,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" s="21" t="s">
+      <c r="B191" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D191" s="16" t="s">
@@ -4032,7 +4048,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" s="21" t="s">
+      <c r="B192" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D192" s="16" t="s">
@@ -4040,7 +4056,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" s="21" t="s">
+      <c r="B193" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D193" s="16" t="s">
@@ -4048,7 +4064,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" s="21" t="s">
+      <c r="B194" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D194" s="16" t="s">
@@ -4056,15 +4072,15 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D195" s="25" t="s">
+      <c r="B195" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D195" s="26" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="196">
-      <c r="B196" s="21" t="s">
+      <c r="B196" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D196" s="16" t="s">
@@ -4072,7 +4088,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" s="21" t="s">
+      <c r="B197" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D197" s="16" t="s">
@@ -4080,7 +4096,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" s="21" t="s">
+      <c r="B198" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D198" s="16" t="s">
@@ -4088,7 +4104,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" s="21" t="s">
+      <c r="B199" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D199" s="16" t="s">
@@ -4096,7 +4112,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" s="21" t="s">
+      <c r="B200" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D200" s="16" t="s">
@@ -4104,7 +4120,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" s="21" t="s">
+      <c r="B201" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D201" s="16" t="s">
@@ -4112,7 +4128,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" s="21" t="s">
+      <c r="B202" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D202" s="16" t="s">
@@ -4120,7 +4136,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" s="21" t="s">
+      <c r="B203" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D203" s="16" t="s">
@@ -4128,7 +4144,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D204" s="16" t="s">
@@ -4136,7 +4152,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" s="21" t="s">
+      <c r="B205" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D205" s="16" t="s">
@@ -4144,7 +4160,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" s="21" t="s">
+      <c r="B206" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D206" s="16" t="s">
@@ -4152,7 +4168,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" s="21" t="s">
+      <c r="B207" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D207" s="16" t="s">
@@ -4160,7 +4176,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" s="21" t="s">
+      <c r="B208" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D208" s="16" t="s">
@@ -4168,7 +4184,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" s="21" t="s">
+      <c r="B209" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D209" s="16" t="s">
@@ -4176,7 +4192,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" s="21" t="s">
+      <c r="B210" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D210" s="16" t="s">
@@ -4184,7 +4200,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" s="21" t="s">
+      <c r="B211" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D211" s="16" t="s">
@@ -4192,7 +4208,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" s="21" t="s">
+      <c r="B212" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D212" s="16" t="s">
@@ -4200,7 +4216,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" s="21" t="s">
+      <c r="B213" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D213" s="16" t="s">
@@ -4208,7 +4224,7 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" s="21" t="s">
+      <c r="B214" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D214" s="16" t="s">
@@ -4216,7 +4232,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" s="21" t="s">
+      <c r="B215" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D215" s="16" t="s">
@@ -4224,7 +4240,7 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" s="21" t="s">
+      <c r="B216" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D216" s="16" t="s">
@@ -4232,7 +4248,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" s="21" t="s">
+      <c r="B217" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D217" s="16" t="s">
@@ -4240,7 +4256,7 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" s="21" t="s">
+      <c r="B218" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D218" s="16" t="s">
@@ -4248,7 +4264,7 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" s="21" t="s">
+      <c r="B219" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D219" s="16" t="s">
@@ -4256,7 +4272,7 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" s="21" t="s">
+      <c r="B220" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D220" s="16" t="s">
@@ -4264,15 +4280,15 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D221" s="26" t="s">
+      <c r="B221" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D221" s="27" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="222">
-      <c r="B222" s="21" t="s">
+      <c r="B222" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D222" s="16" t="s">
@@ -4280,7 +4296,7 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" s="21" t="s">
+      <c r="B223" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D223" s="16" t="s">
@@ -4288,7 +4304,7 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" s="21" t="s">
+      <c r="B224" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D224" s="16" t="s">
@@ -4296,7 +4312,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" s="21" t="s">
+      <c r="B225" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D225" s="16" t="s">
@@ -4304,7 +4320,7 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" s="21" t="s">
+      <c r="B226" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D226" s="16" t="s">
@@ -4312,7 +4328,7 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" s="21" t="s">
+      <c r="B227" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D227" s="16" t="s">
@@ -4320,7 +4336,7 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" s="21" t="s">
+      <c r="B228" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D228" s="16" t="s">
@@ -4328,7 +4344,7 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" s="21" t="s">
+      <c r="B229" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D229" s="16" t="s">
@@ -4336,7 +4352,7 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" s="21" t="s">
+      <c r="B230" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D230" s="16" t="s">
@@ -4344,7 +4360,7 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" s="21" t="s">
+      <c r="B231" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D231" s="16" t="s">
@@ -4352,7 +4368,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" s="21" t="s">
+      <c r="B232" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D232" s="16" t="s">
@@ -4360,7 +4376,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" s="21" t="s">
+      <c r="B233" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D233" s="16" t="s">
@@ -4368,7 +4384,7 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" s="21" t="s">
+      <c r="B234" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D234" s="16" t="s">
@@ -4376,7 +4392,7 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" s="21" t="s">
+      <c r="B235" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D235" s="16" t="s">
@@ -4384,7 +4400,7 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" s="21" t="s">
+      <c r="B236" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D236" s="16" t="s">
@@ -4392,7 +4408,7 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" s="21" t="s">
+      <c r="B237" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D237" s="16" t="s">
@@ -4400,7 +4416,7 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" s="21" t="s">
+      <c r="B238" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D238" s="16" t="s">
@@ -4408,7 +4424,7 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" s="21" t="s">
+      <c r="B239" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D239" s="16" t="s">
@@ -4416,7 +4432,7 @@
       </c>
     </row>
     <row r="240">
-      <c r="B240" s="21" t="s">
+      <c r="B240" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D240" s="16" t="s">
@@ -4424,7 +4440,7 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" s="21" t="s">
+      <c r="B241" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D241" s="16" t="s">
@@ -4432,7 +4448,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" s="21" t="s">
+      <c r="B242" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D242" s="16" t="s">
@@ -4440,7 +4456,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" s="21" t="s">
+      <c r="B243" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D243" s="16" t="s">
@@ -4448,7 +4464,7 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" s="21" t="s">
+      <c r="B244" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D244" s="16" t="s">
@@ -4456,7 +4472,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" s="21" t="s">
+      <c r="B245" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D245" s="16" t="s">
@@ -4464,7 +4480,7 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" s="21" t="s">
+      <c r="B246" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D246" s="16" t="s">
@@ -4472,7 +4488,7 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" s="21" t="s">
+      <c r="B247" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D247" s="16" t="s">
@@ -4480,7 +4496,7 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" s="21" t="s">
+      <c r="B248" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D248" s="16" t="s">
@@ -4488,7 +4504,7 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" s="21" t="s">
+      <c r="B249" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D249" s="16" t="s">
@@ -4496,7 +4512,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" s="21" t="s">
+      <c r="B250" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D250" s="16" t="s">
@@ -4504,7 +4520,7 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" s="21" t="s">
+      <c r="B251" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D251" s="16" t="s">
@@ -4512,7 +4528,7 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" s="21" t="s">
+      <c r="B252" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D252" s="16" t="s">
@@ -4520,7 +4536,7 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" s="21" t="s">
+      <c r="B253" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D253" s="16" t="s">
@@ -4528,7 +4544,7 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" s="21" t="s">
+      <c r="B254" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D254" s="16" t="s">
@@ -4536,7 +4552,7 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" s="21" t="s">
+      <c r="B255" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D255" s="16" t="s">
@@ -4544,7 +4560,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" s="21" t="s">
+      <c r="B256" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D256" s="16" t="s">
@@ -4552,7 +4568,7 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" s="21" t="s">
+      <c r="B257" s="22" t="s">
         <v>108</v>
       </c>
       <c r="D257" s="16" t="s">
@@ -4560,570 +4576,579 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C258" s="27" t="s">
+      <c r="B258" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C258" s="22"/>
+      <c r="D258" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="D258" s="16" t="s">
+    </row>
+    <row r="259">
+      <c r="B259" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C259" s="29" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="259">
-      <c r="B259" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C259" s="27"/>
-      <c r="D259" s="28" t="s">
+      <c r="D259" s="16"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C260" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D260" s="16" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="260">
-      <c r="B260" s="27" t="s">
+    <row r="261">
+      <c r="B261" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C261" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D261" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="C260" s="21"/>
-      <c r="D260" s="29"/>
-    </row>
-    <row r="261">
-      <c r="B261" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C261" s="21" t="s">
+    </row>
+    <row r="262">
+      <c r="B262" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D261" s="29"/>
-    </row>
-    <row r="262">
-      <c r="B262" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C262" s="21" t="s">
+      <c r="C262" s="22"/>
+      <c r="D262" s="30"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C263" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D262" s="29"/>
-    </row>
-    <row r="263">
-      <c r="B263" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C263" s="21" t="s">
+      <c r="D263" s="30"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C264" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D263" s="29"/>
-    </row>
-    <row r="264">
-      <c r="B264" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C264" s="21" t="s">
+      <c r="D264" s="30"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C265" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="D264" s="29"/>
-    </row>
-    <row r="265">
-      <c r="B265" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C265" s="21" t="s">
+      <c r="D265" s="30"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C266" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D265" s="30"/>
-    </row>
-    <row r="266">
-      <c r="B266" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C266" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="D266" s="25" t="s">
+      <c r="D266" s="30"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C267" s="22" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="267">
-      <c r="D267" s="30"/>
+      <c r="D267" s="31"/>
     </row>
     <row r="268">
-      <c r="D268" s="30"/>
+      <c r="D268" s="31"/>
     </row>
     <row r="269">
-      <c r="D269" s="29"/>
+      <c r="D269" s="31"/>
     </row>
     <row r="270">
-      <c r="D270" s="29"/>
+      <c r="D270" s="30"/>
     </row>
     <row r="271">
-      <c r="D271" s="29"/>
+      <c r="D271" s="30"/>
     </row>
     <row r="272">
-      <c r="D272" s="31"/>
+      <c r="D272" s="30"/>
     </row>
     <row r="273">
-      <c r="D273" s="29"/>
+      <c r="D273" s="32"/>
     </row>
     <row r="274">
-      <c r="D274" s="29"/>
+      <c r="D274" s="30"/>
     </row>
     <row r="275">
-      <c r="D275" s="29"/>
+      <c r="D275" s="30"/>
     </row>
     <row r="276">
-      <c r="D276" s="31"/>
+      <c r="D276" s="30"/>
     </row>
     <row r="277">
       <c r="D277" s="32"/>
     </row>
     <row r="278">
-      <c r="D278" s="29"/>
+      <c r="D278" s="33"/>
     </row>
     <row r="279">
-      <c r="D279" s="29"/>
+      <c r="D279" s="30"/>
     </row>
     <row r="280">
-      <c r="D280" s="29"/>
+      <c r="D280" s="30"/>
     </row>
     <row r="281">
-      <c r="D281" s="31"/>
+      <c r="D281" s="30"/>
     </row>
     <row r="282">
-      <c r="D282" s="29"/>
+      <c r="D282" s="32"/>
     </row>
     <row r="283">
-      <c r="D283" s="29"/>
+      <c r="D283" s="30"/>
     </row>
     <row r="284">
-      <c r="D284" s="29"/>
+      <c r="D284" s="30"/>
     </row>
     <row r="285">
-      <c r="D285" s="31"/>
+      <c r="D285" s="30"/>
     </row>
     <row r="286">
-      <c r="D286" s="29"/>
+      <c r="D286" s="32"/>
     </row>
     <row r="287">
-      <c r="D287" s="33"/>
+      <c r="D287" s="30"/>
     </row>
     <row r="288">
-      <c r="D288" s="31"/>
+      <c r="D288" s="34"/>
     </row>
     <row r="289">
-      <c r="D289" s="31"/>
+      <c r="D289" s="32"/>
     </row>
     <row r="290">
-      <c r="D290" s="33"/>
+      <c r="D290" s="32"/>
     </row>
     <row r="291">
-      <c r="D291" s="33"/>
+      <c r="D291" s="34"/>
     </row>
     <row r="292">
-      <c r="D292" s="33"/>
+      <c r="D292" s="34"/>
     </row>
     <row r="293">
-      <c r="D293" s="33"/>
+      <c r="D293" s="34"/>
     </row>
     <row r="294">
-      <c r="D294" s="31"/>
+      <c r="D294" s="34"/>
     </row>
     <row r="295">
-      <c r="D295" s="34"/>
+      <c r="D295" s="32"/>
     </row>
     <row r="296">
-      <c r="D296" s="33"/>
+      <c r="D296" s="35"/>
     </row>
     <row r="297">
-      <c r="D297" s="33"/>
+      <c r="D297" s="34"/>
     </row>
     <row r="298">
-      <c r="D298" s="31"/>
+      <c r="D298" s="34"/>
     </row>
     <row r="299">
-      <c r="D299" s="33"/>
+      <c r="D299" s="32"/>
     </row>
     <row r="300">
-      <c r="D300" s="33"/>
+      <c r="D300" s="34"/>
     </row>
     <row r="301">
-      <c r="D301" s="31"/>
+      <c r="D301" s="34"/>
     </row>
     <row r="302">
-      <c r="D302" s="33"/>
+      <c r="D302" s="32"/>
     </row>
     <row r="303">
-      <c r="D303" s="33"/>
+      <c r="D303" s="34"/>
     </row>
     <row r="304">
-      <c r="D304" s="31"/>
+      <c r="D304" s="34"/>
     </row>
     <row r="305">
-      <c r="D305" s="31"/>
+      <c r="D305" s="32"/>
     </row>
     <row r="306">
-      <c r="D306" s="33"/>
+      <c r="D306" s="32"/>
     </row>
     <row r="307">
-      <c r="D307" s="33"/>
+      <c r="D307" s="34"/>
     </row>
     <row r="308">
-      <c r="D308" s="33"/>
+      <c r="D308" s="34"/>
     </row>
     <row r="309">
-      <c r="D309" s="31"/>
+      <c r="D309" s="34"/>
     </row>
     <row r="310">
-      <c r="D310" s="33"/>
+      <c r="D310" s="32"/>
     </row>
     <row r="311">
-      <c r="D311" s="33"/>
+      <c r="D311" s="34"/>
     </row>
     <row r="312">
-      <c r="D312" s="33"/>
+      <c r="D312" s="34"/>
     </row>
     <row r="313">
-      <c r="D313" s="33"/>
+      <c r="D313" s="34"/>
     </row>
     <row r="314">
-      <c r="D314" s="33"/>
+      <c r="D314" s="34"/>
     </row>
     <row r="315">
-      <c r="D315" s="33"/>
+      <c r="D315" s="34"/>
     </row>
     <row r="316">
-      <c r="D316" s="31"/>
+      <c r="D316" s="34"/>
     </row>
     <row r="317">
-      <c r="D317" s="33"/>
+      <c r="D317" s="32"/>
     </row>
     <row r="318">
-      <c r="D318" s="33"/>
+      <c r="D318" s="34"/>
     </row>
     <row r="319">
-      <c r="D319" s="31"/>
+      <c r="D319" s="34"/>
     </row>
     <row r="320">
-      <c r="D320" s="33"/>
+      <c r="D320" s="32"/>
     </row>
     <row r="321">
-      <c r="D321" s="33"/>
+      <c r="D321" s="34"/>
     </row>
     <row r="322">
-      <c r="D322" s="31"/>
+      <c r="D322" s="34"/>
     </row>
     <row r="323">
-      <c r="D323" s="31"/>
+      <c r="D323" s="32"/>
     </row>
     <row r="324">
-      <c r="D324" s="31"/>
+      <c r="D324" s="32"/>
     </row>
     <row r="325">
-      <c r="D325" s="33"/>
+      <c r="D325" s="32"/>
     </row>
     <row r="326">
-      <c r="D326" s="33"/>
+      <c r="D326" s="34"/>
     </row>
     <row r="327">
-      <c r="D327" s="31"/>
+      <c r="D327" s="34"/>
     </row>
     <row r="328">
-      <c r="D328" s="31"/>
+      <c r="D328" s="32"/>
     </row>
     <row r="329">
-      <c r="D329" s="33"/>
+      <c r="D329" s="32"/>
     </row>
     <row r="330">
-      <c r="D330" s="33"/>
+      <c r="D330" s="34"/>
     </row>
     <row r="331">
-      <c r="D331" s="33"/>
+      <c r="D331" s="34"/>
     </row>
     <row r="332">
-      <c r="D332" s="33"/>
+      <c r="D332" s="34"/>
     </row>
     <row r="333">
-      <c r="D333" s="31"/>
+      <c r="D333" s="34"/>
     </row>
     <row r="334">
-      <c r="D334" s="33"/>
+      <c r="D334" s="32"/>
     </row>
     <row r="335">
-      <c r="D335" s="31"/>
+      <c r="D335" s="34"/>
     </row>
     <row r="336">
-      <c r="D336" s="31"/>
+      <c r="D336" s="32"/>
     </row>
     <row r="337">
-      <c r="D337" s="33"/>
+      <c r="D337" s="32"/>
     </row>
     <row r="338">
-      <c r="D338" s="33"/>
+      <c r="D338" s="34"/>
     </row>
     <row r="339">
-      <c r="D339" s="33"/>
+      <c r="D339" s="34"/>
     </row>
     <row r="340">
-      <c r="D340" s="31"/>
+      <c r="D340" s="34"/>
     </row>
     <row r="341">
-      <c r="D341" s="31"/>
+      <c r="D341" s="32"/>
     </row>
     <row r="342">
-      <c r="D342" s="33"/>
+      <c r="D342" s="32"/>
     </row>
     <row r="343">
-      <c r="D343" s="33"/>
+      <c r="D343" s="34"/>
     </row>
     <row r="344">
       <c r="D344" s="34"/>
     </row>
     <row r="345">
-      <c r="D345" s="33"/>
+      <c r="D345" s="35"/>
     </row>
     <row r="346">
-      <c r="D346" s="33"/>
+      <c r="D346" s="34"/>
     </row>
     <row r="347">
-      <c r="D347" s="33"/>
+      <c r="D347" s="34"/>
     </row>
     <row r="348">
-      <c r="D348" s="33"/>
+      <c r="D348" s="34"/>
     </row>
     <row r="349">
-      <c r="D349" s="33"/>
+      <c r="D349" s="34"/>
     </row>
     <row r="350">
-      <c r="D350" s="33"/>
+      <c r="D350" s="34"/>
     </row>
     <row r="351">
-      <c r="D351" s="33"/>
+      <c r="D351" s="34"/>
     </row>
     <row r="352">
-      <c r="D352" s="33"/>
+      <c r="D352" s="34"/>
     </row>
     <row r="353">
       <c r="D353" s="34"/>
     </row>
     <row r="354">
-      <c r="D354" s="33"/>
+      <c r="D354" s="35"/>
     </row>
     <row r="355">
-      <c r="D355" s="33"/>
+      <c r="D355" s="34"/>
     </row>
     <row r="356">
-      <c r="D356" s="33"/>
+      <c r="D356" s="34"/>
     </row>
     <row r="357">
-      <c r="D357" s="33"/>
+      <c r="D357" s="34"/>
     </row>
     <row r="358">
-      <c r="D358" s="33"/>
+      <c r="D358" s="34"/>
     </row>
     <row r="359">
-      <c r="D359" s="35"/>
+      <c r="D359" s="34"/>
     </row>
     <row r="360">
-      <c r="D360" s="35"/>
+      <c r="D360" s="36"/>
     </row>
     <row r="361">
-      <c r="D361" s="33"/>
+      <c r="D361" s="36"/>
     </row>
     <row r="362">
-      <c r="D362" s="36"/>
+      <c r="D362" s="34"/>
     </row>
     <row r="363">
-      <c r="D363" s="33"/>
+      <c r="D363" s="37"/>
     </row>
     <row r="364">
-      <c r="D364" s="33"/>
+      <c r="D364" s="34"/>
     </row>
     <row r="365">
-      <c r="D365" s="33"/>
+      <c r="D365" s="34"/>
     </row>
     <row r="366">
-      <c r="D366" s="33"/>
+      <c r="D366" s="34"/>
     </row>
     <row r="367">
-      <c r="D367" s="33"/>
+      <c r="D367" s="34"/>
     </row>
     <row r="368">
-      <c r="D368" s="33"/>
+      <c r="D368" s="34"/>
     </row>
     <row r="369">
-      <c r="D369" s="33"/>
+      <c r="D369" s="34"/>
     </row>
     <row r="370">
-      <c r="D370" s="33"/>
+      <c r="D370" s="34"/>
     </row>
     <row r="371">
-      <c r="D371" s="33"/>
+      <c r="D371" s="34"/>
     </row>
     <row r="372">
-      <c r="D372" s="33"/>
+      <c r="D372" s="34"/>
     </row>
     <row r="373">
-      <c r="D373" s="36"/>
+      <c r="D373" s="34"/>
     </row>
     <row r="374">
-      <c r="D374" s="33"/>
+      <c r="D374" s="37"/>
     </row>
     <row r="375">
-      <c r="D375" s="33"/>
+      <c r="D375" s="34"/>
     </row>
     <row r="376">
-      <c r="D376" s="33"/>
+      <c r="D376" s="34"/>
     </row>
     <row r="377">
-      <c r="D377" s="33"/>
+      <c r="D377" s="34"/>
     </row>
     <row r="378">
-      <c r="D378" s="33"/>
+      <c r="D378" s="34"/>
     </row>
     <row r="379">
-      <c r="D379" s="33"/>
+      <c r="D379" s="34"/>
     </row>
     <row r="380">
-      <c r="D380" s="33"/>
+      <c r="D380" s="34"/>
     </row>
     <row r="381">
-      <c r="D381" s="33"/>
+      <c r="D381" s="34"/>
     </row>
     <row r="382">
-      <c r="D382" s="33"/>
+      <c r="D382" s="34"/>
     </row>
     <row r="383">
-      <c r="D383" s="33"/>
+      <c r="D383" s="34"/>
     </row>
     <row r="384">
-      <c r="D384" s="33"/>
+      <c r="D384" s="34"/>
     </row>
     <row r="385">
-      <c r="D385" s="33"/>
+      <c r="D385" s="34"/>
     </row>
     <row r="386">
-      <c r="D386" s="33"/>
+      <c r="D386" s="34"/>
     </row>
     <row r="387">
-      <c r="D387" s="37"/>
+      <c r="D387" s="34"/>
     </row>
     <row r="388">
-      <c r="D388" s="33"/>
+      <c r="D388" s="38"/>
     </row>
     <row r="389">
-      <c r="D389" s="33"/>
+      <c r="D389" s="34"/>
     </row>
     <row r="390">
-      <c r="D390" s="33"/>
+      <c r="D390" s="34"/>
     </row>
     <row r="391">
-      <c r="D391" s="33"/>
+      <c r="D391" s="34"/>
     </row>
     <row r="392">
-      <c r="D392" s="33"/>
+      <c r="D392" s="34"/>
     </row>
     <row r="393">
-      <c r="D393" s="36"/>
+      <c r="D393" s="34"/>
     </row>
     <row r="394">
-      <c r="D394" s="36"/>
+      <c r="D394" s="37"/>
     </row>
     <row r="395">
-      <c r="D395" s="33"/>
+      <c r="D395" s="37"/>
     </row>
     <row r="396">
-      <c r="D396" s="33"/>
+      <c r="D396" s="34"/>
     </row>
     <row r="397">
-      <c r="D397" s="33"/>
+      <c r="D397" s="34"/>
     </row>
     <row r="398">
       <c r="D398" s="34"/>
     </row>
     <row r="399">
-      <c r="D399" s="33"/>
+      <c r="D399" s="35"/>
     </row>
     <row r="400">
-      <c r="D400" s="33"/>
+      <c r="D400" s="34"/>
     </row>
     <row r="401">
-      <c r="D401" s="33"/>
+      <c r="D401" s="34"/>
     </row>
     <row r="402">
-      <c r="D402" s="33"/>
+      <c r="D402" s="34"/>
     </row>
     <row r="403">
-      <c r="D403" s="33"/>
+      <c r="D403" s="34"/>
     </row>
     <row r="404">
-      <c r="D404" s="33"/>
+      <c r="D404" s="34"/>
     </row>
     <row r="405">
       <c r="D405" s="34"/>
     </row>
     <row r="406">
-      <c r="D406" s="33"/>
+      <c r="D406" s="35"/>
     </row>
     <row r="407">
-      <c r="D407" s="33"/>
+      <c r="D407" s="34"/>
     </row>
     <row r="408">
-      <c r="D408" s="36"/>
+      <c r="D408" s="34"/>
     </row>
     <row r="409">
-      <c r="D409" s="38"/>
+      <c r="D409" s="37"/>
     </row>
     <row r="410">
-      <c r="D410" s="36"/>
+      <c r="D410" s="39"/>
     </row>
     <row r="411">
-      <c r="D411" s="36"/>
+      <c r="D411" s="37"/>
     </row>
     <row r="412">
-      <c r="D412" s="36"/>
+      <c r="D412" s="37"/>
     </row>
     <row r="413">
-      <c r="D413" s="36"/>
+      <c r="D413" s="37"/>
     </row>
     <row r="414">
-      <c r="D414" s="36"/>
+      <c r="D414" s="37"/>
     </row>
     <row r="415">
-      <c r="D415" s="36"/>
+      <c r="D415" s="37"/>
     </row>
     <row r="416">
-      <c r="D416" s="38"/>
+      <c r="D416" s="37"/>
     </row>
     <row r="417">
-      <c r="D417" s="38"/>
+      <c r="D417" s="39"/>
     </row>
     <row r="418">
-      <c r="D418" s="36"/>
+      <c r="D418" s="39"/>
     </row>
     <row r="419">
-      <c r="D419" s="36"/>
+      <c r="D419" s="37"/>
     </row>
     <row r="420">
-      <c r="D420" s="36"/>
+      <c r="D420" s="37"/>
     </row>
     <row r="421">
-      <c r="D421" s="36"/>
+      <c r="D421" s="37"/>
     </row>
     <row r="422">
-      <c r="D422" s="36"/>
+      <c r="D422" s="37"/>
     </row>
     <row r="423">
-      <c r="D423" s="36"/>
+      <c r="D423" s="37"/>
     </row>
     <row r="424">
-      <c r="D424" s="39"/>
+      <c r="D424" s="37"/>
     </row>
     <row r="425">
-      <c r="D425" s="36"/>
+      <c r="D425" s="40"/>
     </row>
     <row r="426">
-      <c r="D426" s="36"/>
+      <c r="D426" s="37"/>
     </row>
     <row r="427">
-      <c r="D427" s="36"/>
+      <c r="D427" s="37"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
+++ b/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="262">
   <si>
     <t>identifiant (optionnel et modifiable)</t>
   </si>
@@ -4212,7 +4212,7 @@
         <v>108</v>
       </c>
       <c r="D212" s="16" t="s">
-        <v>109</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213">
@@ -4220,7 +4220,7 @@
         <v>108</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214">
@@ -4228,7 +4228,7 @@
         <v>108</v>
       </c>
       <c r="D214" s="16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="215">
@@ -4236,7 +4236,7 @@
         <v>108</v>
       </c>
       <c r="D215" s="16" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216">
@@ -4244,7 +4244,7 @@
         <v>108</v>
       </c>
       <c r="D216" s="16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217">
@@ -4252,7 +4252,7 @@
         <v>108</v>
       </c>
       <c r="D217" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="218">
@@ -4260,7 +4260,7 @@
         <v>108</v>
       </c>
       <c r="D218" s="16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219">
@@ -4268,23 +4268,23 @@
         <v>108</v>
       </c>
       <c r="D219" s="16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D220" s="16" t="s">
-        <v>214</v>
+      <c r="D220" s="27" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D221" s="27" t="s">
-        <v>215</v>
+      <c r="D221" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="222">
@@ -4292,7 +4292,7 @@
         <v>108</v>
       </c>
       <c r="D222" s="16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223">
@@ -4300,7 +4300,7 @@
         <v>108</v>
       </c>
       <c r="D223" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224">
@@ -4308,7 +4308,7 @@
         <v>108</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="225">
@@ -4316,7 +4316,7 @@
         <v>108</v>
       </c>
       <c r="D225" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226">
@@ -4324,7 +4324,7 @@
         <v>108</v>
       </c>
       <c r="D226" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="227">
@@ -4332,7 +4332,7 @@
         <v>108</v>
       </c>
       <c r="D227" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="228">
@@ -4340,7 +4340,7 @@
         <v>108</v>
       </c>
       <c r="D228" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="229">
@@ -4348,7 +4348,7 @@
         <v>108</v>
       </c>
       <c r="D229" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="230">
@@ -4356,7 +4356,7 @@
         <v>108</v>
       </c>
       <c r="D230" s="16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="231">
@@ -4364,7 +4364,7 @@
         <v>108</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="232">
@@ -4372,7 +4372,7 @@
         <v>108</v>
       </c>
       <c r="D232" s="16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="233">
@@ -4380,7 +4380,7 @@
         <v>108</v>
       </c>
       <c r="D233" s="16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="234">
@@ -4388,7 +4388,7 @@
         <v>108</v>
       </c>
       <c r="D234" s="16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="235">
@@ -4396,7 +4396,7 @@
         <v>108</v>
       </c>
       <c r="D235" s="16" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="236">
@@ -4404,7 +4404,7 @@
         <v>108</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="237">
@@ -4412,7 +4412,7 @@
         <v>108</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="238">
@@ -4420,7 +4420,7 @@
         <v>108</v>
       </c>
       <c r="D238" s="16" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="239">
@@ -4428,7 +4428,7 @@
         <v>108</v>
       </c>
       <c r="D239" s="16" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="240">
@@ -4436,7 +4436,7 @@
         <v>108</v>
       </c>
       <c r="D240" s="16" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="241">
@@ -4444,7 +4444,7 @@
         <v>108</v>
       </c>
       <c r="D241" s="16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="242">
@@ -4452,7 +4452,7 @@
         <v>108</v>
       </c>
       <c r="D242" s="16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="243">
@@ -4460,7 +4460,7 @@
         <v>108</v>
       </c>
       <c r="D243" s="16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="244">
@@ -4468,7 +4468,7 @@
         <v>108</v>
       </c>
       <c r="D244" s="16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="245">
@@ -4476,7 +4476,7 @@
         <v>108</v>
       </c>
       <c r="D245" s="16" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="246">
@@ -4484,7 +4484,7 @@
         <v>108</v>
       </c>
       <c r="D246" s="16" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="247">
@@ -4492,7 +4492,7 @@
         <v>108</v>
       </c>
       <c r="D247" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="248">
@@ -4500,7 +4500,7 @@
         <v>108</v>
       </c>
       <c r="D248" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="249">
@@ -4508,7 +4508,7 @@
         <v>108</v>
       </c>
       <c r="D249" s="16" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="250">
@@ -4516,7 +4516,7 @@
         <v>108</v>
       </c>
       <c r="D250" s="16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="251">
@@ -4524,7 +4524,7 @@
         <v>108</v>
       </c>
       <c r="D251" s="16" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="252">
@@ -4532,7 +4532,7 @@
         <v>108</v>
       </c>
       <c r="D252" s="16" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="253">
@@ -4540,7 +4540,7 @@
         <v>108</v>
       </c>
       <c r="D253" s="16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="254">
@@ -4548,7 +4548,7 @@
         <v>108</v>
       </c>
       <c r="D254" s="16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="255">
@@ -4556,7 +4556,7 @@
         <v>108</v>
       </c>
       <c r="D255" s="16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="256">
@@ -4564,25 +4564,26 @@
         <v>108</v>
       </c>
       <c r="D256" s="16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D257" s="16" t="s">
-        <v>251</v>
+      <c r="C257" s="22"/>
+      <c r="D257" s="28" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="258">
-      <c r="B258" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C258" s="22"/>
-      <c r="D258" s="28" t="s">
-        <v>252</v>
-      </c>
+      <c r="B258" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C258" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="D258" s="16"/>
     </row>
     <row r="259">
       <c r="B259" s="29" t="s">
@@ -4591,35 +4592,35 @@
       <c r="C259" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="D259" s="16"/>
+      <c r="D259" s="16" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="260">
-      <c r="B260" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C260" s="29" t="s">
+      <c r="B260" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C260" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="D260" s="16" t="s">
-        <v>254</v>
+      <c r="D260" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="261">
-      <c r="B261" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="C261" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D261" s="26" t="s">
-        <v>255</v>
-      </c>
+      <c r="B261" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="C261" s="22"/>
+      <c r="D261" s="30"/>
     </row>
     <row r="262">
-      <c r="B262" s="29" t="s">
+      <c r="B262" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C262" s="22"/>
+      <c r="C262" s="22" t="s">
+        <v>257</v>
+      </c>
       <c r="D262" s="30"/>
     </row>
     <row r="263">
@@ -4627,7 +4628,7 @@
         <v>256</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D263" s="30"/>
     </row>
@@ -4636,7 +4637,7 @@
         <v>256</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D264" s="30"/>
     </row>
@@ -4645,7 +4646,7 @@
         <v>256</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D265" s="30"/>
     </row>
@@ -4654,24 +4655,18 @@
         <v>256</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D266" s="30"/>
+        <v>261</v>
+      </c>
+      <c r="D266" s="31"/>
     </row>
     <row r="267">
-      <c r="B267" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C267" s="22" t="s">
-        <v>261</v>
-      </c>
       <c r="D267" s="31"/>
     </row>
     <row r="268">
       <c r="D268" s="31"/>
     </row>
     <row r="269">
-      <c r="D269" s="31"/>
+      <c r="D269" s="30"/>
     </row>
     <row r="270">
       <c r="D270" s="30"/>
@@ -4680,10 +4675,10 @@
       <c r="D271" s="30"/>
     </row>
     <row r="272">
-      <c r="D272" s="30"/>
+      <c r="D272" s="32"/>
     </row>
     <row r="273">
-      <c r="D273" s="32"/>
+      <c r="D273" s="30"/>
     </row>
     <row r="274">
       <c r="D274" s="30"/>
@@ -4692,13 +4687,13 @@
       <c r="D275" s="30"/>
     </row>
     <row r="276">
-      <c r="D276" s="30"/>
+      <c r="D276" s="32"/>
     </row>
     <row r="277">
-      <c r="D277" s="32"/>
+      <c r="D277" s="33"/>
     </row>
     <row r="278">
-      <c r="D278" s="33"/>
+      <c r="D278" s="30"/>
     </row>
     <row r="279">
       <c r="D279" s="30"/>
@@ -4707,10 +4702,10 @@
       <c r="D280" s="30"/>
     </row>
     <row r="281">
-      <c r="D281" s="30"/>
+      <c r="D281" s="32"/>
     </row>
     <row r="282">
-      <c r="D282" s="32"/>
+      <c r="D282" s="30"/>
     </row>
     <row r="283">
       <c r="D283" s="30"/>
@@ -4719,22 +4714,22 @@
       <c r="D284" s="30"/>
     </row>
     <row r="285">
-      <c r="D285" s="30"/>
+      <c r="D285" s="32"/>
     </row>
     <row r="286">
-      <c r="D286" s="32"/>
+      <c r="D286" s="30"/>
     </row>
     <row r="287">
-      <c r="D287" s="30"/>
+      <c r="D287" s="34"/>
     </row>
     <row r="288">
-      <c r="D288" s="34"/>
+      <c r="D288" s="32"/>
     </row>
     <row r="289">
       <c r="D289" s="32"/>
     </row>
     <row r="290">
-      <c r="D290" s="32"/>
+      <c r="D290" s="34"/>
     </row>
     <row r="291">
       <c r="D291" s="34"/>
@@ -4746,43 +4741,43 @@
       <c r="D293" s="34"/>
     </row>
     <row r="294">
-      <c r="D294" s="34"/>
+      <c r="D294" s="32"/>
     </row>
     <row r="295">
-      <c r="D295" s="32"/>
+      <c r="D295" s="35"/>
     </row>
     <row r="296">
-      <c r="D296" s="35"/>
+      <c r="D296" s="34"/>
     </row>
     <row r="297">
       <c r="D297" s="34"/>
     </row>
     <row r="298">
-      <c r="D298" s="34"/>
+      <c r="D298" s="32"/>
     </row>
     <row r="299">
-      <c r="D299" s="32"/>
+      <c r="D299" s="34"/>
     </row>
     <row r="300">
       <c r="D300" s="34"/>
     </row>
     <row r="301">
-      <c r="D301" s="34"/>
+      <c r="D301" s="32"/>
     </row>
     <row r="302">
-      <c r="D302" s="32"/>
+      <c r="D302" s="34"/>
     </row>
     <row r="303">
       <c r="D303" s="34"/>
     </row>
     <row r="304">
-      <c r="D304" s="34"/>
+      <c r="D304" s="32"/>
     </row>
     <row r="305">
       <c r="D305" s="32"/>
     </row>
     <row r="306">
-      <c r="D306" s="32"/>
+      <c r="D306" s="34"/>
     </row>
     <row r="307">
       <c r="D307" s="34"/>
@@ -4791,10 +4786,10 @@
       <c r="D308" s="34"/>
     </row>
     <row r="309">
-      <c r="D309" s="34"/>
+      <c r="D309" s="32"/>
     </row>
     <row r="310">
-      <c r="D310" s="32"/>
+      <c r="D310" s="34"/>
     </row>
     <row r="311">
       <c r="D311" s="34"/>
@@ -4812,25 +4807,25 @@
       <c r="D315" s="34"/>
     </row>
     <row r="316">
-      <c r="D316" s="34"/>
+      <c r="D316" s="32"/>
     </row>
     <row r="317">
-      <c r="D317" s="32"/>
+      <c r="D317" s="34"/>
     </row>
     <row r="318">
       <c r="D318" s="34"/>
     </row>
     <row r="319">
-      <c r="D319" s="34"/>
+      <c r="D319" s="32"/>
     </row>
     <row r="320">
-      <c r="D320" s="32"/>
+      <c r="D320" s="34"/>
     </row>
     <row r="321">
       <c r="D321" s="34"/>
     </row>
     <row r="322">
-      <c r="D322" s="34"/>
+      <c r="D322" s="32"/>
     </row>
     <row r="323">
       <c r="D323" s="32"/>
@@ -4839,19 +4834,19 @@
       <c r="D324" s="32"/>
     </row>
     <row r="325">
-      <c r="D325" s="32"/>
+      <c r="D325" s="34"/>
     </row>
     <row r="326">
       <c r="D326" s="34"/>
     </row>
     <row r="327">
-      <c r="D327" s="34"/>
+      <c r="D327" s="32"/>
     </row>
     <row r="328">
       <c r="D328" s="32"/>
     </row>
     <row r="329">
-      <c r="D329" s="32"/>
+      <c r="D329" s="34"/>
     </row>
     <row r="330">
       <c r="D330" s="34"/>
@@ -4863,19 +4858,19 @@
       <c r="D332" s="34"/>
     </row>
     <row r="333">
-      <c r="D333" s="34"/>
+      <c r="D333" s="32"/>
     </row>
     <row r="334">
-      <c r="D334" s="32"/>
+      <c r="D334" s="34"/>
     </row>
     <row r="335">
-      <c r="D335" s="34"/>
+      <c r="D335" s="32"/>
     </row>
     <row r="336">
       <c r="D336" s="32"/>
     </row>
     <row r="337">
-      <c r="D337" s="32"/>
+      <c r="D337" s="34"/>
     </row>
     <row r="338">
       <c r="D338" s="34"/>
@@ -4884,22 +4879,22 @@
       <c r="D339" s="34"/>
     </row>
     <row r="340">
-      <c r="D340" s="34"/>
+      <c r="D340" s="32"/>
     </row>
     <row r="341">
       <c r="D341" s="32"/>
     </row>
     <row r="342">
-      <c r="D342" s="32"/>
+      <c r="D342" s="34"/>
     </row>
     <row r="343">
       <c r="D343" s="34"/>
     </row>
     <row r="344">
-      <c r="D344" s="34"/>
+      <c r="D344" s="35"/>
     </row>
     <row r="345">
-      <c r="D345" s="35"/>
+      <c r="D345" s="34"/>
     </row>
     <row r="346">
       <c r="D346" s="34"/>
@@ -4923,10 +4918,10 @@
       <c r="D352" s="34"/>
     </row>
     <row r="353">
-      <c r="D353" s="34"/>
+      <c r="D353" s="35"/>
     </row>
     <row r="354">
-      <c r="D354" s="35"/>
+      <c r="D354" s="34"/>
     </row>
     <row r="355">
       <c r="D355" s="34"/>
@@ -4941,19 +4936,19 @@
       <c r="D358" s="34"/>
     </row>
     <row r="359">
-      <c r="D359" s="34"/>
+      <c r="D359" s="36"/>
     </row>
     <row r="360">
       <c r="D360" s="36"/>
     </row>
     <row r="361">
-      <c r="D361" s="36"/>
+      <c r="D361" s="34"/>
     </row>
     <row r="362">
-      <c r="D362" s="34"/>
+      <c r="D362" s="37"/>
     </row>
     <row r="363">
-      <c r="D363" s="37"/>
+      <c r="D363" s="34"/>
     </row>
     <row r="364">
       <c r="D364" s="34"/>
@@ -4983,10 +4978,10 @@
       <c r="D372" s="34"/>
     </row>
     <row r="373">
-      <c r="D373" s="34"/>
+      <c r="D373" s="37"/>
     </row>
     <row r="374">
-      <c r="D374" s="37"/>
+      <c r="D374" s="34"/>
     </row>
     <row r="375">
       <c r="D375" s="34"/>
@@ -5025,10 +5020,10 @@
       <c r="D386" s="34"/>
     </row>
     <row r="387">
-      <c r="D387" s="34"/>
+      <c r="D387" s="38"/>
     </row>
     <row r="388">
-      <c r="D388" s="38"/>
+      <c r="D388" s="34"/>
     </row>
     <row r="389">
       <c r="D389" s="34"/>
@@ -5043,13 +5038,13 @@
       <c r="D392" s="34"/>
     </row>
     <row r="393">
-      <c r="D393" s="34"/>
+      <c r="D393" s="37"/>
     </row>
     <row r="394">
       <c r="D394" s="37"/>
     </row>
     <row r="395">
-      <c r="D395" s="37"/>
+      <c r="D395" s="34"/>
     </row>
     <row r="396">
       <c r="D396" s="34"/>
@@ -5058,10 +5053,10 @@
       <c r="D397" s="34"/>
     </row>
     <row r="398">
-      <c r="D398" s="34"/>
+      <c r="D398" s="35"/>
     </row>
     <row r="399">
-      <c r="D399" s="35"/>
+      <c r="D399" s="34"/>
     </row>
     <row r="400">
       <c r="D400" s="34"/>
@@ -5079,22 +5074,22 @@
       <c r="D404" s="34"/>
     </row>
     <row r="405">
-      <c r="D405" s="34"/>
+      <c r="D405" s="35"/>
     </row>
     <row r="406">
-      <c r="D406" s="35"/>
+      <c r="D406" s="34"/>
     </row>
     <row r="407">
       <c r="D407" s="34"/>
     </row>
     <row r="408">
-      <c r="D408" s="34"/>
+      <c r="D408" s="37"/>
     </row>
     <row r="409">
-      <c r="D409" s="37"/>
+      <c r="D409" s="39"/>
     </row>
     <row r="410">
-      <c r="D410" s="39"/>
+      <c r="D410" s="37"/>
     </row>
     <row r="411">
       <c r="D411" s="37"/>
@@ -5112,13 +5107,13 @@
       <c r="D415" s="37"/>
     </row>
     <row r="416">
-      <c r="D416" s="37"/>
+      <c r="D416" s="39"/>
     </row>
     <row r="417">
       <c r="D417" s="39"/>
     </row>
     <row r="418">
-      <c r="D418" s="39"/>
+      <c r="D418" s="37"/>
     </row>
     <row r="419">
       <c r="D419" s="37"/>
@@ -5136,19 +5131,16 @@
       <c r="D423" s="37"/>
     </row>
     <row r="424">
-      <c r="D424" s="37"/>
+      <c r="D424" s="40"/>
     </row>
     <row r="425">
-      <c r="D425" s="40"/>
+      <c r="D425" s="37"/>
     </row>
     <row r="426">
       <c r="D426" s="37"/>
     </row>
     <row r="427">
       <c r="D427" s="37"/>
-    </row>
-    <row r="428">
-      <c r="D428" s="37"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
+++ b/sources/corpora_icono/mercure_galant/vocabulaire_indexation.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="262">
   <si>
     <t>identifiant (optionnel et modifiable)</t>
   </si>
@@ -2833,7 +2833,9 @@
     </row>
     <row r="96">
       <c r="A96" s="13"/>
-      <c r="B96" s="3"/>
+      <c r="B96" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C96" s="15" t="s">
         <v>92</v>
       </c>
@@ -2845,7 +2847,9 @@
     </row>
     <row r="97">
       <c r="A97" s="13"/>
-      <c r="B97" s="3"/>
+      <c r="B97" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C97" s="15" t="s">
         <v>92</v>
       </c>
